--- a/src/ExcelsiorAspose.Tests/Tests.Whitespace.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.Whitespace.verified.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$2</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -493,12 +495,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
+    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="18.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="20.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="12.7142857142857" customWidth="1"/>
-    <col min="6" max="7" width="8.71428571428571" customWidth="1"/>
+    <col min="5" max="5" width="15.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="10.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="9.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
@@ -548,6 +551,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/ExcelsiorAspose.Tests/Tests.Whitespace.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.Whitespace.verified.xlsx
@@ -504,7 +504,7 @@
     <col min="7" max="7" width="9.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="13" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/Tests.Whitespace.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.Whitespace.verified.xlsx
@@ -46,7 +46,7 @@
     <t>john@company.com</t>
   </si>
   <si>
-    <t>1/01/0001 12:00:00 AM</t>
+    <t/>
   </si>
   <si>
     <t>False</t>
@@ -498,7 +498,7 @@
     <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="18.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="20.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="15.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="10.7142857142857" customWidth="1"/>
     <col min="7" max="7" width="9.71428571428571" customWidth="1"/>

--- a/src/ExcelsiorAspose.Tests/Tests.Whitespace.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.Whitespace.verified.xlsx
@@ -527,7 +527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75">
+    <row r="2" spans="1:7" ht="13" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/Tests.Whitespace.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.Whitespace.verified.xlsx
@@ -98,7 +98,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -495,16 +495,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="15.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="18.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="15.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="10.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="9.71428571428571" customWidth="1"/>
+    <col min="4" max="4" width="12.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="16.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="11.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="10.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" customHeight="1">
+    <row r="1" spans="1:7" ht="14" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" customHeight="1">
+    <row r="2" spans="1:7" ht="14" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/Tests.Whitespace.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.Whitespace.verified.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Employee ID</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>john@company.com</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>False</t>
@@ -537,17 +534,15 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
